--- a/PANSARC_RSFv2/Nanostring probe list with medians.xlsx
+++ b/PANSARC_RSFv2/Nanostring probe list with medians.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\Work\Projects\VGH\PanSarcoma\Validation\Codeset_4_Validation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463DD7B9-2289-4AF3-AFE3-5ECA9404D89B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="19440" windowHeight="10140"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="19440" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="probe medians" sheetId="1" r:id="rId1"/>
     <sheet name="codeset3 probe count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="351">
   <si>
     <t>Endogenous</t>
   </si>
@@ -67,9 +73,6 @@
     <t>CDH11(Exon2)-USP6(Exon2)</t>
   </si>
   <si>
-    <t>CDH11(Exon2)-USP6(ExonaE)</t>
-  </si>
-  <si>
     <t>CIC(Exon19)-FOXO4(Exon2)</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
     <t>COL6A3(Exon9)-CSF1(Exon6)</t>
   </si>
   <si>
-    <t>EML4(Exon2)-ALK(Exon20)</t>
-  </si>
-  <si>
     <t>EML4(Exon2)-NTRK3(Exon14)</t>
   </si>
   <si>
@@ -118,9 +118,6 @@
     <t>EWSR1(Exon10)-DDIT3(Exon2)</t>
   </si>
   <si>
-    <t>EWSR1(Exon10)-ERG(Exon10)</t>
-  </si>
-  <si>
     <t>EWSR1(Exon10)-ERG(Exon8)</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>EWSR1(Exon7)-ERG(Exon11)</t>
   </si>
   <si>
-    <t>EWSR1(Exon7)-ERG(Exon12)</t>
-  </si>
-  <si>
     <t>EWSR1(Exon7)-ERG(Exon13)</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
     <t>HMGA2(Exon3)-LPP(Exon9)</t>
   </si>
   <si>
-    <t>HMGA2(Exon3)-LPP(Exon9)2003</t>
-  </si>
-  <si>
     <t>IRF2BP2(Exon1)-CDX1(Exon2)</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
     <t>JazF1(Intron3)-PHF1(Intron1)</t>
   </si>
   <si>
-    <t>LMNA(Exon2)-ALK(Exon20)</t>
-  </si>
-  <si>
     <t>LPP(Exon7)-HMGA2(Exon4)</t>
   </si>
   <si>
@@ -433,21 +421,12 @@
     <t>PPFIBP1(Exon12)-ALK(Exon20)</t>
   </si>
   <si>
-    <t>PPFIBP1(Exon8)-ALK(Exon20)(+49bpinsert)</t>
-  </si>
-  <si>
-    <t>PRKAR1A(Exon5)-ALK(Exon20)</t>
-  </si>
-  <si>
     <t>RANBP2(Exon18)-ALK(Exon20)</t>
   </si>
   <si>
     <t>RBP56(Exon6)-NR4A3(Exon3)</t>
   </si>
   <si>
-    <t>SEC31(Exon22)-ALK(Exon20)</t>
-  </si>
-  <si>
     <t>SEC31A(Exon21)-ALK(Exon21)</t>
   </si>
   <si>
@@ -514,9 +493,6 @@
     <t>TFG(Exon4)-ROS1(Exon36)</t>
   </si>
   <si>
-    <t>TFG(Exon6)-ALK(Exon20)</t>
-  </si>
-  <si>
     <t>TFG(Exon7)-NR4A3(Exon3)</t>
   </si>
   <si>
@@ -845,12 +821,270 @@
   </si>
   <si>
     <t>DFSP CodeSet</t>
+  </si>
+  <si>
+    <t>ASPSCR1(Exon7)-TFE3(Exon6)</t>
+  </si>
+  <si>
+    <t>ASPSCR1(exon7)-TFE3(exon4)/(Exon5)</t>
+  </si>
+  <si>
+    <t>BCOR ITD CCSK7</t>
+  </si>
+  <si>
+    <t>BCOR(exon15)-MAML3(exon2)</t>
+  </si>
+  <si>
+    <t>CALU(Exon1/intron1)-USP6(Exon1)</t>
+  </si>
+  <si>
+    <t>CDH11(Exon1)-USP6(Exon1)/(Exon2)</t>
+  </si>
+  <si>
+    <t>CDH11(Exon2)-USP6(Exon1)/(Exon2)</t>
+  </si>
+  <si>
+    <t>CIC(exon16)/(exon18)-NUTM1(exon3)(exon4)</t>
+  </si>
+  <si>
+    <t>CIC(exon17)/(exon18)-NUTM1(exon6)</t>
+  </si>
+  <si>
+    <t>CIC(exon20)-NUTM1(exon6)</t>
+  </si>
+  <si>
+    <t>CICex18-DUX4ex1</t>
+  </si>
+  <si>
+    <t>CICex20-DUX4L10ex2</t>
+  </si>
+  <si>
+    <t>CICex20-DUX4ex1 (new CIC break)</t>
+  </si>
+  <si>
+    <t>CICexon20-DUX4exon1</t>
+  </si>
+  <si>
+    <t>COL1A1 (Exon10) - PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon1)-USP6(Exon1)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon13)/(Exon15)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon18)/(Exon20)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon25)/(Exon26)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon29)/(Exon30)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon31)/(Exon32)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon39)/(Exon40)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon46)/(Exon47)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon48)/(Exon49)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon5)/(Exon7)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL1A1(Exon8)/(Exon9)-PDGFB(exon2)</t>
+  </si>
+  <si>
+    <t>COL6A2(Exon1)-USP6(Exon1)/(Exon2)</t>
+  </si>
+  <si>
+    <t>COL6A3(Exon 42)-PDGFD(exon 6)</t>
+  </si>
+  <si>
+    <t>CTNNB1(Exon1)-USP6(Exon1)/(Exon2)</t>
+  </si>
+  <si>
+    <t>EMILIN2(exon 4)-PDGFD(exon6)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon6part)-POU5F1(Exon2)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon7)-ATF1(Exon5)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon7)-ATF1(Exon6)/(exon7)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon7)-ERG(Exon10)/(Exon11)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon7)-ERG(Exon8)/(Exon9)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon7)-ETV1(Exon12del)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon7)-SP3(Exon6part)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon8) - PBX3(Exon5)</t>
+  </si>
+  <si>
+    <t>EWSR1(Exon8)-NFATC2(Exon3)</t>
+  </si>
+  <si>
+    <t>EWSR1(exon7)-ATF1(exon4)</t>
+  </si>
+  <si>
+    <t>EWSR1(exon7)-KLF15(exon2)</t>
+  </si>
+  <si>
+    <t>EWSR1(exon8)-KLF15(exon2)</t>
+  </si>
+  <si>
+    <t>EWSR1(exon9)-ATF1(exon4)</t>
+  </si>
+  <si>
+    <t>EWSR1ex7-SMAD3ex5</t>
+  </si>
+  <si>
+    <t>FUS(Exon4-Intron4) - KLF17(5UTR)</t>
+  </si>
+  <si>
+    <t>FUS(Exon5) - POU5F1(Intron1-Exon2)</t>
+  </si>
+  <si>
+    <t>FUS(Exon5)-DDIT3(Exon2)fusA/(Exon2)</t>
+  </si>
+  <si>
+    <t>FUS(Exon6 part)-DDIT3(Exon2)</t>
+  </si>
+  <si>
+    <t>FUS(Exon6)-ERG(Exon11)</t>
+  </si>
+  <si>
+    <t>FUS(Exon6-del) - KLF17(5UTR)</t>
+  </si>
+  <si>
+    <t>FUS(Exon7)-DDIT3(Exon2)/(Exon3)</t>
+  </si>
+  <si>
+    <t>FUS(Exon7)-ERG(Exon9)</t>
+  </si>
+  <si>
+    <t>FUS(Exon8)-DDIT3(Exon2)/(Exon3)</t>
+  </si>
+  <si>
+    <t>FUS(Exon9)-DDIT3(Exon3part)</t>
+  </si>
+  <si>
+    <t>FUS(exon8)-CREM(exon7)</t>
+  </si>
+  <si>
+    <t>FUSex6-NFATC2ex3</t>
+  </si>
+  <si>
+    <t>GREB1(exon 3)-NCOA2(exon 15)</t>
+  </si>
+  <si>
+    <t>HSPA8(exon2)-NR4A3(exon4)</t>
+  </si>
+  <si>
+    <t>JAZF1(exon3)-SUZ12(exon5)</t>
+  </si>
+  <si>
+    <t>JazF1(exon3)-BCORL1(exon5)</t>
+  </si>
+  <si>
+    <t>LMNA(exon10)-NTRK1(exon12)/(exon11)</t>
+  </si>
+  <si>
+    <t>LMNA(exon2)/(exon3)-NTRK1(exon10)/(exon11)</t>
+  </si>
+  <si>
+    <t>MIR22HG(Exon1)-USP6(Exon1)</t>
+  </si>
+  <si>
+    <t>MYH9(Exon1)-USP6(Exon1)/(Exon2)</t>
+  </si>
+  <si>
+    <t>PAX3(Exon7)-FOXO4(Exon2)</t>
+  </si>
+  <si>
+    <t>PPP6R3(exon1)-USP6(exon1)</t>
+  </si>
+  <si>
+    <t>RRBP1(Exon2)-USP6(Exon1)</t>
+  </si>
+  <si>
+    <t>SPARC(Exon1)-USP6(Exon2)</t>
+  </si>
+  <si>
+    <t>SPECC1L(exon17)-NTRK2(exon16)</t>
+  </si>
+  <si>
+    <t>SQSTM1(exon6)-NTRK1(exon10)</t>
+  </si>
+  <si>
+    <t>SRF(exon6)-NCOA2(exon12)</t>
+  </si>
+  <si>
+    <t>SS18(Exon10)-SSX1/2/4(Exon6)</t>
+  </si>
+  <si>
+    <t>SS18(Exon10)-SSX2(Exon4del)</t>
+  </si>
+  <si>
+    <t>SS18(Exon10part)-SSX1(Exon4)</t>
+  </si>
+  <si>
+    <t>SS18(Exon10part)-SSX1(Exon6)</t>
+  </si>
+  <si>
+    <t>SS18(exon10/part intron10)-SSX2(exon5 part/intron5)</t>
+  </si>
+  <si>
+    <t>TEAD(exon8)-NCOA2(exon13)</t>
+  </si>
+  <si>
+    <t>TFG(exon 6)-NTRK3(exon 10)</t>
+  </si>
+  <si>
+    <t>THBS2(Exon2)-USP6(Exon1)/(Exon2)</t>
+  </si>
+  <si>
+    <t>TPM3(exon8) - NTRK1(exon10)</t>
+  </si>
+  <si>
+    <t>TPR(exon 21)-NTRK1(exon10)</t>
+  </si>
+  <si>
+    <t>UBC(exon1)-USP6(exon1)</t>
+  </si>
+  <si>
+    <t>VGLL2(exon2)-NCOA2(exon13)</t>
+  </si>
+  <si>
+    <t>VGLL2(exon3)/(exon2)-NCOA2(exon14)</t>
+  </si>
+  <si>
+    <t>VGLL2(intron3)-CITED(exon2)</t>
+  </si>
+  <si>
+    <t>YWHAE(Exon5)-NUTM2(Exon2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1233,48 +1467,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F189"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177:F181"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="39.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.21</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -1283,12 +1517,12 @@
         <v>14.405000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>6.9050000000000002</v>
+        <v>1.0550000000000002</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1297,12 +1531,12 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.2649999999999997</v>
+        <v>55.114999999999995</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1311,12 +1545,12 @@
         <v>4.0600000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4.21</v>
+        <v>24.744999999999997</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1325,12 +1559,12 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>6.6099999999999994</v>
+        <v>1.0350000000000001</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -1339,12 +1573,12 @@
         <v>8.4050000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1">
-        <v>2.8449999999999998</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -1353,12 +1587,12 @@
         <v>4.5949999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1">
-        <v>3.4400000000000004</v>
+        <v>6.57</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1367,12 +1601,12 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1">
-        <v>11.71</v>
+        <v>16.32</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1381,12 +1615,12 @@
         <v>3.8050000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="B10" s="1">
-        <v>3.3099999999999996</v>
+        <v>5.76</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1395,12 +1629,12 @@
         <v>5.6449999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="B11" s="1">
-        <v>8.8249999999999993</v>
+        <v>5.65</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1409,12 +1643,12 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="B12" s="1">
-        <v>3.5449999999999999</v>
+        <v>8.6750000000000007</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1423,12 +1657,12 @@
         <v>4.2050000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="B13" s="1">
-        <v>5.5250000000000004</v>
+        <v>8.42</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1437,26 +1671,26 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="B14" s="1">
-        <v>3.23</v>
+        <v>14.89</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F14" s="1">
         <v>20.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="B15" s="1">
-        <v>2.3449999999999998</v>
+        <v>19.785</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1465,12 +1699,12 @@
         <v>8.004999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="B16" s="1">
-        <v>11.129999999999999</v>
+        <v>8.8099999999999987</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1479,2337 +1713,2449 @@
         <v>3.2249999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1">
-        <v>14.484999999999999</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>24.265000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="B18" s="1">
-        <v>2.54</v>
+        <v>15.670000000000002</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1">
         <v>4.57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="B19" s="1">
-        <v>7.8650000000000002</v>
+        <v>36.695</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1">
         <v>6.63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>17.450000000000003</v>
+        <v>5.6750000000000007</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1">
         <v>25.045000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="B21" s="1">
-        <v>1.6749999999999998</v>
+        <v>3.0999999999999996</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F21" s="1">
         <v>7.68</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="B22" s="1">
-        <v>2.1799999999999997</v>
+        <v>26.555</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F22" s="1">
         <v>14.96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="B23" s="1">
-        <v>4.87</v>
+        <v>4.9649999999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F23" s="1">
         <v>10.48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="B24" s="1">
-        <v>5.9749999999999996</v>
+        <v>11.445</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F24" s="1">
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="B25" s="1">
-        <v>21.495000000000001</v>
+        <v>7.7850000000000001</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1">
         <v>7.585</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1">
-        <v>5.47</v>
+        <v>27.57</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F26" s="1">
         <v>14.004999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1">
-        <v>5.4450000000000003</v>
+        <v>4.59</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F27" s="1">
         <v>69.004999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1">
-        <v>192.465</v>
+        <v>7.76</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F28" s="1">
         <v>6.63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="B29" s="1">
-        <v>4.63</v>
+        <v>13.875</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F29" s="1">
         <v>3.3099999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="B30" s="1">
-        <v>6.6550000000000002</v>
+        <v>23.585000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F30" s="1">
         <v>7.83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="B31" s="1">
-        <v>2.9699999999999998</v>
+        <v>5.23</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F31" s="1">
         <v>7.24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="B32" s="1">
-        <v>3.5250000000000004</v>
+        <v>8.0749999999999993</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F32" s="1">
         <v>8.0249999999999986</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="B33" s="1">
-        <v>4.9800000000000004</v>
+        <v>42.914999999999999</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F33" s="1">
         <v>5.125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="B34" s="1">
-        <v>4.6999999999999993</v>
+        <v>5.08</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F34" s="1">
         <v>24.39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="B35" s="1">
-        <v>4.5250000000000004</v>
+        <v>5.875</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F35" s="1">
         <v>6.9350000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="B36" s="1">
-        <v>6.9550000000000001</v>
+        <v>12.105</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F36" s="1">
         <v>3.4450000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="B37" s="1">
-        <v>6.8800000000000008</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F37" s="1">
         <v>4.1549999999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="B38" s="1">
-        <v>3.4550000000000001</v>
+        <v>16.119999999999997</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F38" s="1">
         <v>12.395</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1">
-        <v>8.2850000000000001</v>
+        <v>16.125</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F39" s="1">
         <v>2.8449999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="B40" s="1">
-        <v>19.305</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F40" s="1">
         <v>4.1050000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="B41" s="1">
-        <v>3.6050000000000004</v>
+        <v>5.49</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F41" s="1">
         <v>3.79</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1">
-        <v>5.0250000000000004</v>
+        <v>1.0350000000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F42" s="1">
         <v>8.7149999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1">
-        <v>3.145</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F43" s="1">
         <v>14.015000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="B44" s="1">
-        <v>3.07</v>
+        <v>5.01</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1">
         <v>24.814999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="B45" s="1">
-        <v>2.23</v>
+        <v>10.645</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="B46" s="1">
-        <v>4.2650000000000006</v>
+        <v>2.12</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1">
         <v>5.7949999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="B47" s="1">
-        <v>3.415</v>
+        <v>2.665</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F47" s="1">
         <v>8.49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="B48" s="1">
-        <v>2.0649999999999999</v>
+        <v>2.76</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1">
         <v>19.254999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="B49" s="1">
-        <v>8.5300000000000011</v>
+        <v>1.05</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F49" s="1">
         <v>90.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="B50" s="1">
-        <v>4.4950000000000001</v>
+        <v>1.0550000000000002</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F50" s="1">
         <v>5.8149999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="B51" s="1">
-        <v>5.8100000000000005</v>
+        <v>29.664999999999999</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F51" s="1">
         <v>9.4400000000000013</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="B52" s="1">
-        <v>1.68</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F52" s="1">
         <v>5.04</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="B53" s="1">
-        <v>4.3849999999999998</v>
+        <v>22.18</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F53" s="1">
         <v>6.49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="B54" s="1">
-        <v>1.9049999999999998</v>
+        <v>4.4350000000000005</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F54" s="1">
         <v>5.9550000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="B55" s="1">
-        <v>2.0599999999999996</v>
+        <v>11.920000000000002</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F55" s="1">
         <v>13.065000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1">
-        <v>5.835</v>
+        <v>4.5050000000000008</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F56" s="1">
         <v>5.1349999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="B57" s="1">
-        <v>7.4450000000000003</v>
+        <v>6.7649999999999997</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F57" s="1">
         <v>29.18</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>292</v>
       </c>
       <c r="B58" s="1">
-        <v>3.4050000000000002</v>
+        <v>11.664999999999999</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F58" s="1">
         <v>3.96</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="B59" s="1">
-        <v>8.9649999999999999</v>
+        <v>26.805</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F59" s="1">
         <v>6.58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="B60" s="1">
-        <v>1.82</v>
+        <v>19.515000000000001</v>
       </c>
       <c r="E60" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F60" s="1">
         <v>6.07</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1">
-        <v>12.855</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F61" s="1">
         <v>4.1349999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B62" s="1">
-        <v>3.08</v>
+        <v>5.51</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F62" s="1">
         <v>16.204999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1">
-        <v>3.1749999999999998</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F63" s="1">
         <v>6.89</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B64" s="1">
-        <v>6.6349999999999998</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F64" s="1">
         <v>9.4400000000000013</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B65" s="1">
-        <v>6.21</v>
+        <v>27.715</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F65" s="1">
         <v>3.06</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B66" s="1">
-        <v>3.3049999999999997</v>
+        <v>9.4250000000000007</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F66" s="1">
         <v>3.5549999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1">
-        <v>2.2349999999999999</v>
+        <v>8.8350000000000009</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F67" s="1">
         <v>11.92</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B68" s="1">
-        <v>5.0999999999999996</v>
+        <v>27.22</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F68" s="1">
         <v>11.364999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1">
-        <v>6.73</v>
+        <v>17.48</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F69" s="1">
         <v>6.96</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B70" s="1">
-        <v>3.125</v>
+        <v>6.35</v>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F70" s="1">
         <v>2.9750000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B71" s="1">
-        <v>3.3049999999999997</v>
+        <v>6.8250000000000002</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F71" s="1">
         <v>2.9349999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
-        <v>2.4550000000000001</v>
+        <v>31.55</v>
       </c>
       <c r="E72" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F72" s="1">
         <v>2.9449999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B73" s="1">
-        <v>13.71</v>
+        <v>7.21</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F73" s="1">
         <v>2.98</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1">
-        <v>4.59</v>
+        <v>58.064999999999998</v>
       </c>
       <c r="E74" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F74" s="1">
         <v>13.475</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B75" s="1">
-        <v>14.05</v>
+        <v>6.4</v>
       </c>
       <c r="E75" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F75" s="1">
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B76" s="1">
-        <v>10.815</v>
+        <v>51.88</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F76" s="1">
         <v>3.7650000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="B77" s="1">
-        <v>16.07</v>
+        <v>10.91</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F77" s="1">
         <v>7.1449999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="B78" s="1">
-        <v>5.1100000000000003</v>
+        <v>7.39</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="1">
         <v>3.12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="B79" s="1">
-        <v>4.8100000000000005</v>
+        <v>5.4450000000000003</v>
       </c>
       <c r="E79" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="1">
         <v>23.939999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="B80" s="1">
-        <v>8.2799999999999994</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F80" s="1">
         <v>20.130000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1">
-        <v>7.65</v>
+        <v>28.619999999999997</v>
       </c>
       <c r="E81" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F81" s="1">
         <v>11.585000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B82" s="1">
-        <v>1.9100000000000001</v>
+        <v>7.4049999999999994</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F82" s="1">
         <v>4.37</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="B83" s="1">
-        <v>3.51</v>
+        <v>9.6850000000000005</v>
       </c>
       <c r="E83" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F83" s="1">
         <v>5.6950000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="B84" s="1">
-        <v>6.22</v>
+        <v>34.6</v>
       </c>
       <c r="E84" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F84" s="1">
         <v>18.175000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B85" s="1">
-        <v>24.05</v>
+        <v>8.44</v>
       </c>
       <c r="E85" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F85" s="1">
         <v>16.93</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="B86" s="1">
-        <v>3.355</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F86" s="1">
         <v>22.07</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B87" s="1">
-        <v>3.0949999999999998</v>
+        <v>6.9249999999999998</v>
       </c>
       <c r="E87" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F87" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B88" s="1">
-        <v>2.0350000000000001</v>
+        <v>6.65</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F88" s="1">
         <v>6.24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B89" s="1">
-        <v>17.04</v>
+        <v>13.77</v>
       </c>
       <c r="E89" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F89" s="1">
         <v>4.1549999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B90" s="1">
-        <v>4.8000000000000007</v>
+        <v>23.82</v>
       </c>
       <c r="E90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F90" s="1">
         <v>11.45</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B91" s="1">
-        <v>2.9849999999999999</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F91" s="1">
         <v>4.66</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B92" s="1">
-        <v>7.9649999999999999</v>
+        <v>3.37</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F92" s="1">
         <v>9.3299999999999983</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B93" s="1">
-        <v>6.27</v>
+        <v>3.5549999999999997</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F93" s="1">
         <v>3.915</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B94" s="1">
-        <v>5.125</v>
+        <v>22.97</v>
       </c>
       <c r="E94" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F94" s="1">
         <v>6.9349999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="B95" s="1">
-        <v>2.5449999999999999</v>
+        <v>6.17</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F95" s="1">
         <v>14.21</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B96" s="1">
-        <v>3.875</v>
+        <v>8.2650000000000006</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F96" s="1">
         <v>4.3900000000000006</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="B97" s="1">
-        <v>6.8550000000000004</v>
+        <v>20.990000000000002</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F97" s="1">
         <v>4.6550000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B98" s="1">
-        <v>3.125</v>
+        <v>43.564999999999998</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F98" s="1">
         <v>4.4850000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B99" s="1">
-        <v>6.1850000000000005</v>
+        <v>8.6750000000000007</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F99" s="1">
         <v>9.0350000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B100" s="1">
-        <v>5.3949999999999996</v>
+        <v>15.739999999999998</v>
       </c>
       <c r="E100" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F100" s="1">
         <v>13.489999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="B101" s="1">
-        <v>4.5350000000000001</v>
+        <v>47.19</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F101" s="1">
         <v>7.33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B102" s="1">
-        <v>2.79</v>
+        <v>37.325000000000003</v>
       </c>
       <c r="E102" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F102" s="1">
         <v>3.915</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B103" s="1">
-        <v>4.68</v>
+        <v>16.66</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F103" s="1">
         <v>13.7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B104" s="1">
-        <v>5.2799999999999994</v>
+        <v>26.164999999999999</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F104" s="1">
         <v>17.855</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B105" s="1">
-        <v>5.5150000000000006</v>
+        <v>13.71</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F105" s="1">
         <v>3.0199999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B106" s="1">
-        <v>11.475000000000001</v>
+        <v>4.57</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F106" s="1">
         <v>45.844999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B107" s="1">
-        <v>6.1</v>
+        <v>11.355</v>
       </c>
       <c r="E107" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F107" s="1">
         <v>3.1950000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B108" s="1">
-        <v>1.7349999999999999</v>
+        <v>58.825000000000003</v>
       </c>
       <c r="E108" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F108" s="1">
         <v>19.395</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B109" s="1">
-        <v>3.585</v>
+        <v>7.1349999999999998</v>
       </c>
       <c r="E109" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F109" s="1">
         <v>3.0350000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="B110" s="1">
-        <v>1.7</v>
+        <v>5.2249999999999996</v>
       </c>
       <c r="E110" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F110" s="1">
         <v>5.5600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="B111" s="1">
-        <v>1.81</v>
+        <v>18.77</v>
       </c>
       <c r="E111" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F111" s="1">
         <v>5.3599999999999994</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="B112" s="1">
-        <v>4.5500000000000007</v>
+        <v>6.9749999999999996</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F112" s="1">
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B113" s="1">
-        <v>5.7050000000000001</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="E113" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F113" s="1">
         <v>8.61</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="B114" s="1">
-        <v>8.3849999999999998</v>
+        <v>5.33</v>
       </c>
       <c r="E114" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F114" s="1">
         <v>10.225</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="B115" s="1">
-        <v>8.61</v>
+        <v>8.32</v>
       </c>
       <c r="E115" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F115" s="1">
         <v>4.4950000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="B116" s="1">
-        <v>2.625</v>
+        <v>26.555</v>
       </c>
       <c r="E116" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F116" s="1">
         <v>13.305</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B117" s="1">
-        <v>6.1850000000000005</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E117" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F117" s="1">
         <v>10.475000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B118" s="1">
-        <v>5.8</v>
+        <v>42.194999999999993</v>
       </c>
       <c r="E118" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F118" s="1">
         <v>20.755000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B119" s="1">
-        <v>9.129999999999999</v>
+        <v>11.215</v>
       </c>
       <c r="E119" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F119" s="1">
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B120" s="1">
-        <v>5.1850000000000005</v>
+        <v>43.59</v>
       </c>
       <c r="E120" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F120" s="1">
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="B121" s="1">
-        <v>6.9949999999999992</v>
+        <v>9.39</v>
       </c>
       <c r="E121" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F121" s="1">
         <v>36.655000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>310</v>
       </c>
       <c r="B122" s="1">
-        <v>6.7949999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="E122" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F122" s="1">
         <v>20.840000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B123" s="1">
-        <v>55.019999999999996</v>
+        <v>8.9149999999999991</v>
       </c>
       <c r="E123" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F123" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="B124" s="1">
-        <v>13.58</v>
+        <v>122.02000000000001</v>
       </c>
       <c r="E124" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F124" s="1">
         <v>20.439999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B125" s="1">
-        <v>4.3449999999999998</v>
+        <v>18.375</v>
       </c>
       <c r="E125" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F125" s="1">
         <v>4.6349999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="B126" s="1">
-        <v>7.5250000000000004</v>
+        <v>17.36</v>
       </c>
       <c r="E126" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F126" s="1">
         <v>9.245000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="B127" s="1">
-        <v>3.7549999999999999</v>
+        <v>9.129999999999999</v>
       </c>
       <c r="E127" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F127" s="1">
         <v>16.234999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="B128" s="1">
-        <v>6.9250000000000007</v>
+        <v>15.495000000000001</v>
       </c>
       <c r="E128" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F128" s="1">
         <v>8.2149999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>315</v>
       </c>
       <c r="B129" s="1">
-        <v>9.4700000000000006</v>
+        <v>3.81</v>
       </c>
       <c r="E129" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F129" s="1">
         <v>22.195</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="B130" s="1">
-        <v>5.1449999999999996</v>
+        <v>10.629999999999999</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F130" s="1">
         <v>2.8149999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="B131" s="1">
-        <v>6.6099999999999994</v>
+        <v>18.754999999999999</v>
       </c>
       <c r="E131" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F131" s="1">
         <v>9.01</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="B132" s="1">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="E132" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F132" s="1">
         <v>8.8149999999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="B133" s="1">
-        <v>3.0999999999999996</v>
+        <v>6.6150000000000002</v>
       </c>
       <c r="E133" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F133" s="1">
         <v>5.92</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>320</v>
       </c>
       <c r="B134" s="1">
-        <v>7.1449999999999996</v>
+        <v>6.3550000000000004</v>
       </c>
       <c r="E134" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F134" s="1">
         <v>6.4250000000000007</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="B135" s="1">
-        <v>5.7149999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F135" s="1">
         <v>15.48</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B136" s="1">
-        <v>5.01</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="E136" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F136" s="1">
         <v>24.855</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B137" s="1">
-        <v>2.0599999999999996</v>
+        <v>3.3449999999999998</v>
       </c>
       <c r="E137" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F137" s="1">
         <v>4.6349999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="B138" s="1">
-        <v>7.1150000000000002</v>
+        <v>16.274999999999999</v>
       </c>
       <c r="E138" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F138" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B139" s="1">
-        <v>31.14</v>
+        <v>12.94</v>
       </c>
       <c r="E139" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F139" s="1">
         <v>5.67</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c r="B140" s="1">
-        <v>37.82</v>
+        <v>9.98</v>
       </c>
       <c r="E140" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F140" s="1">
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B141" s="1">
-        <v>3.335</v>
+        <v>2.56</v>
       </c>
       <c r="E141" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F141" s="1">
         <v>7.7649999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B142" s="1">
-        <v>4.2349999999999994</v>
+        <v>16.185000000000002</v>
       </c>
       <c r="E142" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F142" s="1">
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>324</v>
       </c>
       <c r="B143" s="1">
-        <v>3.395</v>
+        <v>10.164999999999999</v>
       </c>
       <c r="E143" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F143" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="B144" s="1">
-        <v>9.995000000000001</v>
+        <v>63.91</v>
       </c>
       <c r="E144" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F144" s="1">
         <v>6.72</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="B145" s="1">
-        <v>3.3449999999999998</v>
+        <v>3.0750000000000002</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F145" s="1">
         <v>5.04</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="B146" s="1">
-        <v>5.0199999999999996</v>
+        <v>9.2349999999999994</v>
       </c>
       <c r="E146" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F146" s="1">
         <v>10.629999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="B147" s="1">
-        <v>7.2149999999999999</v>
+        <v>78.594999999999999</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F147" s="1">
         <v>15.04</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B148" s="1">
-        <v>4.9649999999999999</v>
+        <v>6.65</v>
       </c>
       <c r="E148" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F148" s="1">
         <v>4.72</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B149" s="1">
-        <v>3.2649999999999997</v>
+        <v>22.1</v>
       </c>
       <c r="E149" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F149" s="1">
         <v>15.684999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B150" s="1">
-        <v>4.835</v>
+        <v>24.11</v>
       </c>
       <c r="E150" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F150" s="1">
         <v>22.744999999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="B151" s="1">
-        <v>13.504999999999999</v>
+        <v>7.4849999999999994</v>
       </c>
       <c r="E151" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F151" s="1">
         <v>4.6950000000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B152" s="1">
-        <v>8.51</v>
+        <v>46.715000000000003</v>
       </c>
       <c r="E152" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F152" s="1">
         <v>4.59</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B153" s="1">
-        <v>8.44</v>
+        <v>11.484999999999999</v>
       </c>
       <c r="E153" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F153" s="1">
         <v>6.82</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B154" s="1">
-        <v>2.2549999999999999</v>
+        <v>8.0350000000000001</v>
       </c>
       <c r="E154" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F154" s="1">
         <v>4.6150000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B155" s="1">
-        <v>6.8800000000000008</v>
+        <v>20.740000000000002</v>
       </c>
       <c r="E155" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F155" s="1">
         <v>24.314999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="B156" s="1">
-        <v>12.309999999999999</v>
+        <v>23.865000000000002</v>
       </c>
       <c r="E156" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F156" s="1">
         <v>4.24</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="B157" s="1">
-        <v>2.9299999999999997</v>
+        <v>6.1349999999999998</v>
       </c>
       <c r="E157" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F157" s="1">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="B158" s="1">
-        <v>2.855</v>
+        <v>6.665</v>
       </c>
       <c r="E158" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F158" s="1">
         <v>12.085000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="B159" s="1">
-        <v>5.12</v>
+        <v>21.880000000000003</v>
       </c>
       <c r="E159" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F159" s="1">
         <v>50.36</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="B160" s="1">
-        <v>8.8149999999999995</v>
+        <v>9.7050000000000001</v>
       </c>
       <c r="E160" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F160" s="1">
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="B161" s="1">
-        <v>2.52</v>
+        <v>18.53</v>
       </c>
       <c r="E161" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F161" s="1">
         <v>5.32</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B162" s="1">
-        <v>13.29</v>
+        <v>23.535</v>
       </c>
       <c r="E162" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F162" s="1">
         <v>13.34</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B163" s="1">
-        <v>4.0049999999999999</v>
+        <v>9.0749999999999993</v>
       </c>
       <c r="E163" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F163" s="1">
         <v>5.7750000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="B164" s="1">
-        <v>7.8100000000000005</v>
+        <v>10.879999999999999</v>
       </c>
       <c r="E164" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F164" s="1">
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="B165" s="1">
-        <v>5.82</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="E165" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F165" s="1">
         <v>4.8149999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="B166" s="1">
-        <v>6.33</v>
+        <v>22.01</v>
       </c>
       <c r="E166" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F166" s="1">
         <v>3.9950000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B167" s="1">
-        <v>61.375</v>
+        <v>4.4649999999999999</v>
       </c>
       <c r="E167" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F167" s="1">
         <v>10.115</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="1">
+        <v>47.625</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4.5549999999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>339</v>
+      </c>
+      <c r="B170" s="1">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="1">
+        <v>3.9450000000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="1">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>151</v>
+      </c>
+      <c r="B173" s="1">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" s="1">
+        <v>39.58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>153</v>
+      </c>
+      <c r="B175" s="1">
+        <v>9.2149999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>341</v>
+      </c>
+      <c r="B176" s="1">
+        <v>8.7050000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>155</v>
+      </c>
+      <c r="B177" s="1">
+        <v>10.925000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="1">
+        <v>5.9550000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>343</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2.0999999999999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>344</v>
+      </c>
+      <c r="B180" s="1">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>345</v>
+      </c>
+      <c r="B181" s="1">
+        <v>6.0449999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>157</v>
+      </c>
+      <c r="B182" s="1">
+        <v>21.515000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>346</v>
+      </c>
+      <c r="B183" s="1">
+        <v>19.795000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>347</v>
+      </c>
+      <c r="B184" s="1">
+        <v>5.1550000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>348</v>
+      </c>
+      <c r="B185" s="1">
+        <v>31.299999999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>349</v>
+      </c>
+      <c r="B186" s="1">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>350</v>
+      </c>
+      <c r="B187" s="1">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>163</v>
+      </c>
+      <c r="B188" s="1">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="1">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>243</v>
+      </c>
+      <c r="E191" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" s="1">
+        <v>216655.64500000002</v>
+      </c>
+      <c r="E192" t="s">
+        <v>166</v>
+      </c>
+      <c r="F192" s="1">
+        <v>351.16816326530608</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="1">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B193" s="1">
+        <v>56335.815000000002</v>
+      </c>
+      <c r="E193" t="s">
+        <v>167</v>
+      </c>
+      <c r="F193" s="1">
+        <v>48210.359183673456</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="1">
-        <v>6.3550000000000004</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B194" s="1">
+        <v>2767.415</v>
+      </c>
+      <c r="E194" t="s">
+        <v>168</v>
+      </c>
+      <c r="F194" s="1">
+        <v>3034.2034693877563</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="1">
-        <v>11.559999999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171" s="1">
-        <v>4.6449999999999996</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>171</v>
-      </c>
-      <c r="B172" s="1">
-        <v>4.165</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173" s="1">
-        <v>8.39</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174" s="1">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>174</v>
-      </c>
-      <c r="B175" s="1">
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>253</v>
-      </c>
-      <c r="E177" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>176</v>
-      </c>
-      <c r="B178" s="1">
-        <v>94015.593333333323</v>
-      </c>
-      <c r="E178" t="s">
-        <v>176</v>
-      </c>
-      <c r="F178" s="1">
-        <v>351.16816326530608</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>177</v>
-      </c>
-      <c r="B179" s="1">
-        <v>46580.162777777783</v>
-      </c>
-      <c r="E179" t="s">
-        <v>177</v>
-      </c>
-      <c r="F179" s="1">
-        <v>48210.359183673456</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" s="1">
-        <v>2395.0275000000006</v>
-      </c>
-      <c r="E180" t="s">
-        <v>178</v>
-      </c>
-      <c r="F180" s="1">
-        <v>3034.2034693877563</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" s="1">
-        <v>73146.700277777782</v>
-      </c>
-      <c r="E181" t="s">
-        <v>179</v>
-      </c>
-      <c r="F181" s="1">
+      <c r="B195" s="1">
+        <v>151415.38500000001</v>
+      </c>
+      <c r="E195" t="s">
+        <v>169</v>
+      </c>
+      <c r="F195" s="1">
         <v>142318.05346938776</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>251</v>
-      </c>
-      <c r="E183" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>243</v>
-      </c>
-      <c r="B184" s="10">
-        <v>30910.916666666668</v>
-      </c>
-      <c r="E184" t="s">
-        <v>243</v>
-      </c>
-      <c r="F184" s="10">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>241</v>
+      </c>
+      <c r="E197" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>233</v>
+      </c>
+      <c r="B198" s="10">
+        <v>72388</v>
+      </c>
+      <c r="E198" t="s">
+        <v>233</v>
+      </c>
+      <c r="F198" s="10">
         <v>70886.972222222219</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>244</v>
-      </c>
-      <c r="B185" s="10">
-        <v>5396.666666666667</v>
-      </c>
-      <c r="E185" t="s">
-        <v>244</v>
-      </c>
-      <c r="F185" s="10">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>234</v>
+      </c>
+      <c r="B199" s="10">
+        <v>8402</v>
+      </c>
+      <c r="E199" t="s">
+        <v>234</v>
+      </c>
+      <c r="F199" s="10">
         <v>12182.027777777777</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>245</v>
-      </c>
-      <c r="B186" s="10">
-        <v>2274.1111111111113</v>
-      </c>
-      <c r="E186" t="s">
-        <v>245</v>
-      </c>
-      <c r="F186" s="10">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>235</v>
+      </c>
+      <c r="B200" s="10">
+        <v>5045</v>
+      </c>
+      <c r="E200" t="s">
+        <v>235</v>
+      </c>
+      <c r="F200" s="10">
         <v>4775.1944444444443</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>246</v>
-      </c>
-      <c r="B187" s="10">
-        <v>282.08333333333331</v>
-      </c>
-      <c r="E187" t="s">
-        <v>246</v>
-      </c>
-      <c r="F187" s="10">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B201" s="10">
+        <v>516</v>
+      </c>
+      <c r="E201" t="s">
+        <v>236</v>
+      </c>
+      <c r="F201" s="10">
         <v>582.72222222222217</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>247</v>
-      </c>
-      <c r="B188" s="10">
-        <v>135.27777777777777</v>
-      </c>
-      <c r="E188" t="s">
-        <v>247</v>
-      </c>
-      <c r="F188" s="10">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>237</v>
+      </c>
+      <c r="B202" s="10">
+        <v>217</v>
+      </c>
+      <c r="E202" t="s">
+        <v>237</v>
+      </c>
+      <c r="F202" s="10">
         <v>260.63888888888891</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>248</v>
-      </c>
-      <c r="B189" s="10">
-        <v>27.416666666666668</v>
-      </c>
-      <c r="E189" t="s">
-        <v>248</v>
-      </c>
-      <c r="F189" s="10">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>238</v>
+      </c>
+      <c r="B203" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>238</v>
+      </c>
+      <c r="F203" s="10">
         <v>57.722222222222221</v>
       </c>
     </row>
@@ -3820,37 +4166,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="19.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="55.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="17.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.54296875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +4204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +4212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3874,1516 +4220,1516 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="5" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="5" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="5" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="5" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="5" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="5" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="5" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="5" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="5" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="5" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="5" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="5" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="5" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="5" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="5" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="5" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="5" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="5" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="5" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="5" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="5" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="5" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="5" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="5" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="5" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="5" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="5" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="5" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="5" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="5" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="5" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="5" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="5" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="5" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="5" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="5" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="5" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="5" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="5" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="5" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="5" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="5" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="5" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="5" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="5" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="5" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="5" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="5" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="5" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="5" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="5" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="5" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="5" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="5" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="5" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="5" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="5" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="5" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="5" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="5" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="5" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="5" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="5" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="5" t="s">
+      <c r="B130" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="5" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B130" s="5" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B131" s="5" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B132" s="5" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B133" s="5" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" s="7" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="7" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="7" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="7" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" s="7" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" s="7" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" s="7" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="7" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" s="7" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="7" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="7" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="7" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="7" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" s="7" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="7" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="7" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="7" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" s="7" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" s="7" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" s="7" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="7" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="7" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="8" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="8" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="8" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" s="7" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161" s="7" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="7" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B165" s="7" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="7" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="7" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" s="7" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="8" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
